--- a/config_3.23/item_config.xlsx
+++ b/config_3.23/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3994,10 +3994,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>桃花</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_drop_7</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4023,6 +4019,10 @@
   </si>
   <si>
     <t>"act_xrxsfl","obj_xrxsfl_5_50box"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4607,9 +4607,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L320" sqref="L320"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8958,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G131" s="33">
         <v>0</v>
@@ -8967,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="J131" s="34" t="s">
         <v>931</v>
@@ -15299,7 +15299,7 @@
         <v>1014</v>
       </c>
       <c r="L315" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="16.5">
@@ -15334,7 +15334,7 @@
         <v>1015</v>
       </c>
       <c r="L316" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="16.5">
@@ -15369,7 +15369,7 @@
         <v>1016</v>
       </c>
       <c r="L317" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="16.5">
@@ -15404,7 +15404,7 @@
         <v>1017</v>
       </c>
       <c r="L318" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15447,7 +15447,7 @@
         <v>319</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D320" s="2">
         <v>-1</v>
@@ -15471,7 +15471,7 @@
         <v>1041</v>
       </c>
       <c r="L320" s="5" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
